--- a/auto/new_data/9_2_Ferrous_LME-Steel-CFR-India-Platts.xlsx
+++ b/auto/new_data/9_2_Ferrous_LME-Steel-CFR-India-Platts.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Ferrous_LME-Steel-CFR-India-Platts.xlsx
+++ b/auto/new_data/9_2_Ferrous_LME-Steel-CFR-India-Platts.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Ferrous_LME-Steel-CFR-India-Platts.xlsx
+++ b/auto/new_data/9_2_Ferrous_LME-Steel-CFR-India-Platts.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nov 24</t>
+          <t>Dec 24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>May 25</t>
+          <t>Jun 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jun 25</t>
+          <t>Jul 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jul 25</t>
+          <t>Aug 25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aug 25</t>
+          <t>Sep 25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sep 25</t>
+          <t>Oct 25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Oct 25</t>
+          <t>Nov 25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nov 25</t>
+          <t>Dec 25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dec 25</t>
+          <t>Jan 26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jan 26</t>
+          <t>Feb 26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
